--- a/results/mp/logistic/corona/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
@@ -40,208 +40,208 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>corona</t>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7397260273972602</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,38 +771,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="L5">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>24</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,16 +892,16 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.925</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5135135135135135</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8433420365535248</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L11">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M11">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,16 +1142,16 @@
         <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.392156862745098</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8018867924528302</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3643410852713178</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2909090909090909</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2711864406779661</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2348993288590604</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
@@ -1442,16 +1442,16 @@
         <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07539682539682539</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7727272727272727</v>
+        <v>0.7578125</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.03753351206434316</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7659574468085106</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,37 +1571,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006447453255963894</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3082</v>
+        <v>360</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7625</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L21">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,63 +1621,87 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006083294337856809</v>
+        <v>0.006545114539504441</v>
       </c>
       <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0.22</v>
+      </c>
+      <c r="F22">
+        <v>0.78</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2125</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>0.32</v>
-      </c>
-      <c r="F22">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2124</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L22">
-        <v>108</v>
-      </c>
-      <c r="M22">
-        <v>108</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.005802707930367505</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>0.22</v>
+      </c>
+      <c r="F23">
+        <v>0.78</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>3084</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L23">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L23">
-        <v>44</v>
-      </c>
       <c r="M23">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,12 +1713,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>0.7142857142857143</v>
@@ -1720,16 +1744,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1741,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6842105263157895</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1767,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1793,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.675</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1819,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1845,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1871,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1897,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.62</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1923,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1949,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.611764705882353</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L34">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="M34">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1975,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.6046511627906976</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2001,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.5728813559322034</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2027,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.5648535564853556</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L37">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="M37">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2053,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.5571428571428572</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2079,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.5425531914893617</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2105,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2157,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.5056179775280899</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2183,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2209,12 +2233,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44">
         <v>0.4285714285714285</v>
@@ -2240,16 +2264,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.4242424242424243</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2261,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.392156862745098</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2292,16 +2316,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3555555555555556</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2313,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.3287671232876712</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2339,59 +2363,33 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.3205128205128205</v>
+        <v>0.005017246785826278</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K50">
-        <v>0.00438871473354232</v>
-      </c>
-      <c r="L50">
-        <v>14</v>
-      </c>
-      <c r="M50">
-        <v>25</v>
-      </c>
-      <c r="N50">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O50">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>3176</v>
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
